--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tfpi-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.0687699417925</v>
+        <v>10.91244366666667</v>
       </c>
       <c r="H2">
-        <v>10.0687699417925</v>
+        <v>32.737331</v>
       </c>
       <c r="I2">
-        <v>0.2809051288606191</v>
+        <v>0.2863847678890978</v>
       </c>
       <c r="J2">
-        <v>0.2809051288606191</v>
+        <v>0.2863847678890977</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.1352682035468</v>
+        <v>0.3081963333333333</v>
       </c>
       <c r="N2">
-        <v>2.1352682035468</v>
+        <v>0.924589</v>
       </c>
       <c r="O2">
-        <v>0.7756313334844294</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="P2">
-        <v>0.7756313334844294</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="Q2">
-        <v>21.49952430553729</v>
+        <v>3.363175125773223</v>
       </c>
       <c r="R2">
-        <v>21.49952430553729</v>
+        <v>30.268576131959</v>
       </c>
       <c r="S2">
-        <v>0.2178788196807775</v>
+        <v>0.02637877384023744</v>
       </c>
       <c r="T2">
-        <v>0.2178788196807775</v>
+        <v>0.02637877384023743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.0687699417925</v>
+        <v>10.91244366666667</v>
       </c>
       <c r="H3">
-        <v>10.0687699417925</v>
+        <v>32.737331</v>
       </c>
       <c r="I3">
-        <v>0.2809051288606191</v>
+        <v>0.2863847678890978</v>
       </c>
       <c r="J3">
-        <v>0.2809051288606191</v>
+        <v>0.2863847678890977</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.617673962874414</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N3">
-        <v>0.617673962874414</v>
+        <v>6.621118</v>
       </c>
       <c r="O3">
-        <v>0.2243686665155707</v>
+        <v>0.65961009678592</v>
       </c>
       <c r="P3">
-        <v>0.2243686665155707</v>
+        <v>0.6596100967859201</v>
       </c>
       <c r="Q3">
-        <v>6.219217031217756</v>
+        <v>24.08419239511755</v>
       </c>
       <c r="R3">
-        <v>6.219217031217756</v>
+        <v>216.757731556058</v>
       </c>
       <c r="S3">
-        <v>0.06302630917984167</v>
+        <v>0.188902284465341</v>
       </c>
       <c r="T3">
-        <v>0.06302630917984167</v>
+        <v>0.188902284465341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.1045491652706</v>
+        <v>10.91244366666667</v>
       </c>
       <c r="H4">
-        <v>17.1045491652706</v>
+        <v>32.737331</v>
       </c>
       <c r="I4">
-        <v>0.4771938990710283</v>
+        <v>0.2863847678890978</v>
       </c>
       <c r="J4">
-        <v>0.4771938990710283</v>
+        <v>0.2863847678890977</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.1352682035468</v>
+        <v>0.83074</v>
       </c>
       <c r="N4">
-        <v>2.1352682035468</v>
+        <v>2.49222</v>
       </c>
       <c r="O4">
-        <v>0.7756313334844294</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="P4">
-        <v>0.7756313334844294</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="Q4">
-        <v>36.52279996860527</v>
+        <v>9.065403451646667</v>
       </c>
       <c r="R4">
-        <v>36.52279996860527</v>
+        <v>81.58863106481999</v>
       </c>
       <c r="S4">
-        <v>0.3701265402670958</v>
+        <v>0.0711037095835193</v>
       </c>
       <c r="T4">
-        <v>0.3701265402670958</v>
+        <v>0.0711037095835193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.1045491652706</v>
+        <v>17.16042866666666</v>
       </c>
       <c r="H5">
-        <v>17.1045491652706</v>
+        <v>51.481286</v>
       </c>
       <c r="I5">
-        <v>0.4771938990710283</v>
+        <v>0.4503560825328814</v>
       </c>
       <c r="J5">
-        <v>0.4771938990710283</v>
+        <v>0.4503560825328813</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.617673962874414</v>
+        <v>0.3081963333333333</v>
       </c>
       <c r="N5">
-        <v>0.617673962874414</v>
+        <v>0.924589</v>
       </c>
       <c r="O5">
-        <v>0.2243686665155707</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="P5">
-        <v>0.2243686665155707</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="Q5">
-        <v>10.56503466609294</v>
+        <v>5.288781193494889</v>
       </c>
       <c r="R5">
-        <v>10.56503466609294</v>
+        <v>47.59903074145399</v>
       </c>
       <c r="S5">
-        <v>0.1070673588039324</v>
+        <v>0.04148209884301752</v>
       </c>
       <c r="T5">
-        <v>0.1070673588039324</v>
+        <v>0.04148209884301751</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.25721619399661</v>
+        <v>17.16042866666666</v>
       </c>
       <c r="H6">
-        <v>4.25721619399661</v>
+        <v>51.481286</v>
       </c>
       <c r="I6">
-        <v>0.1187706016202051</v>
+        <v>0.4503560825328814</v>
       </c>
       <c r="J6">
-        <v>0.1187706016202051</v>
+        <v>0.4503560825328813</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.1352682035468</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N6">
-        <v>2.1352682035468</v>
+        <v>6.621118</v>
       </c>
       <c r="O6">
-        <v>0.7756313334844294</v>
+        <v>0.65961009678592</v>
       </c>
       <c r="P6">
-        <v>0.7756313334844294</v>
+        <v>0.6596100967859201</v>
       </c>
       <c r="Q6">
-        <v>9.090298374665487</v>
+        <v>37.87374104419422</v>
       </c>
       <c r="R6">
-        <v>9.090298374665487</v>
+        <v>340.863669397748</v>
       </c>
       <c r="S6">
-        <v>0.09212220011342757</v>
+        <v>0.2970594191876417</v>
       </c>
       <c r="T6">
-        <v>0.09212220011342757</v>
+        <v>0.2970594191876417</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.25721619399661</v>
+        <v>17.16042866666666</v>
       </c>
       <c r="H7">
-        <v>4.25721619399661</v>
+        <v>51.481286</v>
       </c>
       <c r="I7">
-        <v>0.1187706016202051</v>
+        <v>0.4503560825328814</v>
       </c>
       <c r="J7">
-        <v>0.1187706016202051</v>
+        <v>0.4503560825328813</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.617673962874414</v>
+        <v>0.83074</v>
       </c>
       <c r="N7">
-        <v>0.617673962874414</v>
+        <v>2.49222</v>
       </c>
       <c r="O7">
-        <v>0.2243686665155707</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="P7">
-        <v>0.2243686665155707</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="Q7">
-        <v>2.629571597359016</v>
+        <v>14.25585451054667</v>
       </c>
       <c r="R7">
-        <v>2.629571597359016</v>
+        <v>128.30269059492</v>
       </c>
       <c r="S7">
-        <v>0.02664840150677749</v>
+        <v>0.1118145645022222</v>
       </c>
       <c r="T7">
-        <v>0.02664840150677749</v>
+        <v>0.1118145645022222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.85370074502619</v>
+        <v>4.33904</v>
       </c>
       <c r="H8">
-        <v>2.85370074502619</v>
+        <v>13.01712</v>
       </c>
       <c r="I8">
-        <v>0.07961440971890135</v>
+        <v>0.1138732076168498</v>
       </c>
       <c r="J8">
-        <v>0.07961440971890135</v>
+        <v>0.1138732076168498</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.1352682035468</v>
+        <v>0.3081963333333333</v>
       </c>
       <c r="N8">
-        <v>2.1352682035468</v>
+        <v>0.924589</v>
       </c>
       <c r="O8">
-        <v>0.7756313334844294</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="P8">
-        <v>0.7756313334844294</v>
+        <v>0.09210955608663024</v>
       </c>
       <c r="Q8">
-        <v>6.093416463292237</v>
+        <v>1.337276218186667</v>
       </c>
       <c r="R8">
-        <v>6.093416463292237</v>
+        <v>12.03548596368</v>
       </c>
       <c r="S8">
-        <v>0.06175143077484717</v>
+        <v>0.01048881060374872</v>
       </c>
       <c r="T8">
-        <v>0.06175143077484717</v>
+        <v>0.01048881060374871</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.85370074502619</v>
+        <v>4.33904</v>
       </c>
       <c r="H9">
-        <v>2.85370074502619</v>
+        <v>13.01712</v>
       </c>
       <c r="I9">
-        <v>0.07961440971890135</v>
+        <v>0.1138732076168498</v>
       </c>
       <c r="J9">
-        <v>0.07961440971890135</v>
+        <v>0.1138732076168498</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.617673962874414</v>
+        <v>2.207039333333333</v>
       </c>
       <c r="N9">
-        <v>0.617673962874414</v>
+        <v>6.621118</v>
       </c>
       <c r="O9">
-        <v>0.2243686665155707</v>
+        <v>0.65961009678592</v>
       </c>
       <c r="P9">
-        <v>0.2243686665155707</v>
+        <v>0.6596100967859201</v>
       </c>
       <c r="Q9">
-        <v>1.762656648037994</v>
+        <v>9.576431948906666</v>
       </c>
       <c r="R9">
-        <v>1.762656648037994</v>
+        <v>86.18788754016001</v>
       </c>
       <c r="S9">
-        <v>0.01786297894405419</v>
+        <v>0.07511191749747345</v>
       </c>
       <c r="T9">
-        <v>0.01786297894405419</v>
+        <v>0.07511191749747345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.5597871037672</v>
+        <v>4.33904</v>
       </c>
       <c r="H10">
-        <v>1.5597871037672</v>
+        <v>13.01712</v>
       </c>
       <c r="I10">
-        <v>0.04351596072924622</v>
+        <v>0.1138732076168498</v>
       </c>
       <c r="J10">
-        <v>0.04351596072924622</v>
+        <v>0.1138732076168498</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.1352682035468</v>
+        <v>0.83074</v>
       </c>
       <c r="N10">
-        <v>2.1352682035468</v>
+        <v>2.49222</v>
       </c>
       <c r="O10">
-        <v>0.7756313334844294</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="P10">
-        <v>0.7756313334844294</v>
+        <v>0.2482803471274497</v>
       </c>
       <c r="Q10">
-        <v>3.330563806976455</v>
+        <v>3.6046140896</v>
       </c>
       <c r="R10">
-        <v>3.330563806976455</v>
+        <v>32.4415268064</v>
       </c>
       <c r="S10">
-        <v>0.03375234264828131</v>
+        <v>0.02827247951562761</v>
       </c>
       <c r="T10">
-        <v>0.03375234264828131</v>
+        <v>0.02827247951562761</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.892394333333333</v>
+      </c>
+      <c r="H11">
+        <v>11.677183</v>
+      </c>
+      <c r="I11">
+        <v>0.1021514961941619</v>
+      </c>
+      <c r="J11">
+        <v>0.1021514961941619</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.3081963333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.924589</v>
+      </c>
+      <c r="O11">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="P11">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="Q11">
+        <v>1.199621661420778</v>
+      </c>
+      <c r="R11">
+        <v>10.796594952787</v>
+      </c>
+      <c r="S11">
+        <v>0.009409128968029352</v>
+      </c>
+      <c r="T11">
+        <v>0.009409128968029349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.892394333333333</v>
+      </c>
+      <c r="H12">
+        <v>11.677183</v>
+      </c>
+      <c r="I12">
+        <v>0.1021514961941619</v>
+      </c>
+      <c r="J12">
+        <v>0.1021514961941619</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N12">
+        <v>6.621118</v>
+      </c>
+      <c r="O12">
+        <v>0.65961009678592</v>
+      </c>
+      <c r="P12">
+        <v>0.6596100967859201</v>
+      </c>
+      <c r="Q12">
+        <v>8.590667394510444</v>
+      </c>
+      <c r="R12">
+        <v>77.316006550594</v>
+      </c>
+      <c r="S12">
+        <v>0.06738015829145767</v>
+      </c>
+      <c r="T12">
+        <v>0.06738015829145766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.5597871037672</v>
-      </c>
-      <c r="H11">
-        <v>1.5597871037672</v>
-      </c>
-      <c r="I11">
-        <v>0.04351596072924622</v>
-      </c>
-      <c r="J11">
-        <v>0.04351596072924622</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.617673962874414</v>
-      </c>
-      <c r="N11">
-        <v>0.617673962874414</v>
-      </c>
-      <c r="O11">
-        <v>0.2243686665155707</v>
-      </c>
-      <c r="P11">
-        <v>0.2243686665155707</v>
-      </c>
-      <c r="Q11">
-        <v>0.9634398816242912</v>
-      </c>
-      <c r="R11">
-        <v>0.9634398816242912</v>
-      </c>
-      <c r="S11">
-        <v>0.009763618080964915</v>
-      </c>
-      <c r="T11">
-        <v>0.009763618080964915</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.892394333333333</v>
+      </c>
+      <c r="H13">
+        <v>11.677183</v>
+      </c>
+      <c r="I13">
+        <v>0.1021514961941619</v>
+      </c>
+      <c r="J13">
+        <v>0.1021514961941619</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.83074</v>
+      </c>
+      <c r="N13">
+        <v>2.49222</v>
+      </c>
+      <c r="O13">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="P13">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="Q13">
+        <v>3.233567668473333</v>
+      </c>
+      <c r="R13">
+        <v>29.10210901626</v>
+      </c>
+      <c r="S13">
+        <v>0.02536220893467487</v>
+      </c>
+      <c r="T13">
+        <v>0.02536220893467487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.799827666666667</v>
+      </c>
+      <c r="H14">
+        <v>5.399483</v>
+      </c>
+      <c r="I14">
+        <v>0.04723444576700921</v>
+      </c>
+      <c r="J14">
+        <v>0.0472344457670092</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3081963333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.924589</v>
+      </c>
+      <c r="O14">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="P14">
+        <v>0.09210955608663024</v>
+      </c>
+      <c r="Q14">
+        <v>0.5547002874985556</v>
+      </c>
+      <c r="R14">
+        <v>4.992302587487</v>
+      </c>
+      <c r="S14">
+        <v>0.004350743831597228</v>
+      </c>
+      <c r="T14">
+        <v>0.004350743831597228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.799827666666667</v>
+      </c>
+      <c r="H15">
+        <v>5.399483</v>
+      </c>
+      <c r="I15">
+        <v>0.04723444576700921</v>
+      </c>
+      <c r="J15">
+        <v>0.0472344457670092</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.207039333333333</v>
+      </c>
+      <c r="N15">
+        <v>6.621118</v>
+      </c>
+      <c r="O15">
+        <v>0.65961009678592</v>
+      </c>
+      <c r="P15">
+        <v>0.6596100967859201</v>
+      </c>
+      <c r="Q15">
+        <v>3.972290453554889</v>
+      </c>
+      <c r="R15">
+        <v>35.750614081994</v>
+      </c>
+      <c r="S15">
+        <v>0.03115631734400623</v>
+      </c>
+      <c r="T15">
+        <v>0.03115631734400623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.799827666666667</v>
+      </c>
+      <c r="H16">
+        <v>5.399483</v>
+      </c>
+      <c r="I16">
+        <v>0.04723444576700921</v>
+      </c>
+      <c r="J16">
+        <v>0.0472344457670092</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.83074</v>
+      </c>
+      <c r="N16">
+        <v>2.49222</v>
+      </c>
+      <c r="O16">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="P16">
+        <v>0.2482803471274497</v>
+      </c>
+      <c r="Q16">
+        <v>1.495188835806667</v>
+      </c>
+      <c r="R16">
+        <v>13.45669952226</v>
+      </c>
+      <c r="S16">
+        <v>0.01172738459140574</v>
+      </c>
+      <c r="T16">
+        <v>0.01172738459140574</v>
       </c>
     </row>
   </sheetData>
